--- a/02_MasterWifoMannheim/99_Backup/Course134.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course134.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F5928115919D8B36AE5F9D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CA04E1-1E50-4EB0-95AA-00A27C084F9A}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 510 Price and Product Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This module deals with two important components of the marketing mix: price and product management. With regard to price management the fundamentals of pricing decisions will be discussed as well as classic pricing theory and behavioral pricing. Furthermore, a focus of the lecture will be on determining optimal prices and on price implementation. The part on product management is concerned with all decisions related to the current and future product portfolio and includes all stages of the product life cycle with a special focus on innovation management and the management of products already established in the market. Finally, the module covers fundamental models of product choice and major aspects of brand management.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>At the end of this module, students will understand the relevance of pricing and product decisions and become familiar with important instruments/tools of price and product management. which are rooted in micro economics and psychological theory and they are able to derive detailed recommendations for actions regarding all areas of product decisions. In addition, the students will be able to apply analytical tools used to make pricing and product decisions.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dr. h.c. mult. Christian Homburg</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 510 Price and Product Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This module deals with two important components of the marketing mix: price and product management. With regard to price management the fundamentals of pricing decisions will be discussed as well as classic pricing theory and behavioral pricing. Furthermore, a focus of the lecture will be on determining optimal prices and on price implementation. The part on product management is concerned with all decisions related to the current and future product portfolio and includes all stages of the product life cycle with a special focus on innovation management and the management of products already established in the market. Finally, the module covers fundamental models of product choice and major aspects of brand management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>At the end of this module, students will understand the relevance of pricing and product decisions and become familiar with important instruments/tools of price and product management. which are rooted in micro economics and psychological theory and they are able to derive detailed recommendations for actions regarding all areas of product decisions. In addition, the students will be able to apply analytical tools used to make pricing and product decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Dr. h.c. mult. Christian Homburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
